--- a/data/trans_orig/IP07C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F343647-69D8-43D5-9E11-0B163599D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7835B76E-3128-48B6-9758-AF31CC4EB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{086B6F54-79CE-4994-AF68-6A2D29DCEC51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFFB1C36-D855-42C1-B8D8-5D3E1FFB8D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>8,42%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,75%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,10 +106,10 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -118,7 +118,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,65%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -127,25 +127,28 @@
     <t>14,11%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -154,28 +157,28 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -184,28 +187,28 @@
     <t>68,33%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>63,11%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -217,10 +220,10 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -232,7 +235,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -241,1072 +244,1054 @@
     <t>0,32%</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>16,09%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>60,99%</t>
+    <t>60,8%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>56,8%</t>
   </si>
   <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -1318,13 +1303,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>6,7%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>13,64%</t>
@@ -1333,85 +1318,94 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>28,18%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>61,56%</t>
   </si>
   <si>
-    <t>71,48%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>68,61%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>2,65%</t>
@@ -1420,115 +1414,121 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,17%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F453C13-70B7-436E-AB8A-72622107886D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBFCBB7-E336-477D-B57D-F17D763E708F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2184,10 +2184,10 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -2196,19 +2196,19 @@
         <v>12079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -2217,13 +2217,13 @@
         <v>6923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2232,13 +2232,13 @@
         <v>10076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2247,19 +2247,19 @@
         <v>16999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>44</v>
@@ -2268,13 +2268,13 @@
         <v>29535</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -2283,13 +2283,13 @@
         <v>26787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -2298,13 +2298,13 @@
         <v>56322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2319,13 @@
         <v>43224</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -2334,13 +2334,13 @@
         <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -2349,18 +2349,18 @@
         <v>89238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2372,13 +2372,13 @@
         <v>1971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2402,13 +2402,13 @@
         <v>1971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2423,13 @@
         <v>2075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2438,13 +2438,13 @@
         <v>3461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2453,13 +2453,13 @@
         <v>5536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2474,13 @@
         <v>31139</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -2489,13 +2489,13 @@
         <v>22836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -2504,19 +2504,19 @@
         <v>53974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>53</v>
@@ -2525,13 +2525,13 @@
         <v>35389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2540,13 +2540,13 @@
         <v>41416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2555,19 +2555,19 @@
         <v>76805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>219</v>
@@ -2576,13 +2576,13 @@
         <v>144774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -2591,13 +2591,13 @@
         <v>122146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>400</v>
@@ -2606,13 +2606,13 @@
         <v>266920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2627,13 @@
         <v>215347</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>284</v>
@@ -2642,13 +2642,13 @@
         <v>189859</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>609</v>
@@ -2657,18 +2657,18 @@
         <v>405206</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2686,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2737,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2761,13 +2761,13 @@
         <v>793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2782,13 @@
         <v>9296</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -2797,13 +2797,13 @@
         <v>7950</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2812,19 +2812,19 @@
         <v>17245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -2833,13 +2833,13 @@
         <v>5873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2848,13 +2848,13 @@
         <v>10761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2863,19 +2863,19 @@
         <v>16635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>51</v>
@@ -2884,13 +2884,13 @@
         <v>33871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -2899,13 +2899,13 @@
         <v>34742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -2914,13 +2914,13 @@
         <v>68614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2935,13 @@
         <v>49040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -2950,13 +2950,13 @@
         <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -2965,13 +2965,13 @@
         <v>103287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2988,13 @@
         <v>2638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3003,13 +3003,13 @@
         <v>1270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3039,7 +3039,7 @@
         <v>2075</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>141</v>
@@ -3069,10 +3069,10 @@
         <v>8229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>148</v>
@@ -3132,7 +3132,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>73</v>
@@ -3174,16 +3174,16 @@
         <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>314</v>
@@ -3192,13 +3192,13 @@
         <v>208180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>271</v>
@@ -3207,13 +3207,13 @@
         <v>183676</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>585</v>
@@ -3222,13 +3222,13 @@
         <v>391856</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>307611</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -3258,13 +3258,13 @@
         <v>290119</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -3273,18 +3273,18 @@
         <v>597731</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7048F4E-BD6B-4186-95F7-0FA44B6C5D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFE9914-78FD-4422-B016-0957B49C5940}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3320,7 +3320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3427,13 +3427,13 @@
         <v>1430</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3457,13 +3457,13 @@
         <v>1430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3511,10 +3511,10 @@
         <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3529,13 @@
         <v>7557</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3544,13 +3544,13 @@
         <v>8082</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -3571,7 +3571,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -3622,7 +3622,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>40</v>
@@ -3682,13 +3682,13 @@
         <v>45162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3697,13 +3697,13 @@
         <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3712,18 +3712,18 @@
         <v>96787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3753,10 +3753,10 @@
         <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3765,10 +3765,10 @@
         <v>10626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>221</v>
@@ -3804,10 +3804,10 @@
         <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3816,13 +3816,13 @@
         <v>17351</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3837,13 @@
         <v>39046</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3852,13 +3852,13 @@
         <v>28834</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -3867,19 +3867,19 @@
         <v>67881</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>61</v>
@@ -3888,13 +3888,13 @@
         <v>41954</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -3903,13 +3903,13 @@
         <v>49990</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -3918,19 +3918,19 @@
         <v>91944</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>184</v>
@@ -3939,13 +3939,13 @@
         <v>126921</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -3954,13 +3954,13 @@
         <v>108324</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -3969,13 +3969,13 @@
         <v>235245</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3990,13 @@
         <v>223299</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>286</v>
@@ -4005,13 +4005,13 @@
         <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -4020,18 +4020,18 @@
         <v>423046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4043,13 +4043,13 @@
         <v>657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4058,13 +4058,13 @@
         <v>3548</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4073,13 +4073,13 @@
         <v>4205</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4094,13 @@
         <v>1841</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4115,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4124,13 +4124,13 @@
         <v>3519</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>7347</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -4160,13 +4160,13 @@
         <v>8664</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -4175,19 +4175,19 @@
         <v>16011</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
@@ -4196,13 +4196,13 @@
         <v>12905</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -4211,13 +4211,13 @@
         <v>14408</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -4226,19 +4226,19 @@
         <v>27313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -4247,13 +4247,13 @@
         <v>33402</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4262,13 +4262,13 @@
         <v>32503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -4277,13 +4277,13 @@
         <v>65905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4298,13 @@
         <v>56152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -4313,13 +4313,13 @@
         <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -4328,13 +4328,13 @@
         <v>116953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4351,13 @@
         <v>8494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4366,13 +4366,13 @@
         <v>7767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4381,13 +4381,13 @@
         <v>16261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4402,13 @@
         <v>11681</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -4417,13 +4417,13 @@
         <v>11743</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -4432,13 +4432,13 @@
         <v>23424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4453,13 @@
         <v>53950</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -4468,13 +4468,13 @@
         <v>45580</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -4483,19 +4483,19 @@
         <v>99530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>90</v>
@@ -4504,13 +4504,13 @@
         <v>61330</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -4519,13 +4519,13 @@
         <v>73259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -4534,19 +4534,19 @@
         <v>134589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>272</v>
@@ -4555,13 +4555,13 @@
         <v>189157</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -4570,13 +4570,13 @@
         <v>173825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>518</v>
@@ -4585,13 +4585,13 @@
         <v>362982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4606,13 @@
         <v>324612</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4621,13 +4621,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>916</v>
@@ -4636,18 +4636,18 @@
         <v>636786</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5127865E-5916-4C3D-933B-31136B169AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BD192-11B1-4303-8A22-E62F337D9A05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4683,7 +4683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4790,13 +4790,13 @@
         <v>662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4805,13 +4805,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4820,13 +4820,13 @@
         <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4841,13 @@
         <v>6206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4856,13 +4856,13 @@
         <v>4560</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4874,10 +4874,10 @@
         <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4892,13 @@
         <v>1479</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4907,13 +4907,13 @@
         <v>4209</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4922,19 +4922,19 @@
         <v>5688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -4943,13 +4943,13 @@
         <v>12772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4958,13 +4958,13 @@
         <v>3569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4973,19 +4973,19 @@
         <v>16341</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>22</v>
@@ -4994,13 +4994,13 @@
         <v>15519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5009,13 +5009,13 @@
         <v>15613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -5024,13 +5024,13 @@
         <v>31132</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5045,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5060,13 +5060,13 @@
         <v>29977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -5075,18 +5075,18 @@
         <v>66616</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5098,13 +5098,13 @@
         <v>3584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5113,13 +5113,13 @@
         <v>6407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5128,13 +5128,13 @@
         <v>9992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5149,13 @@
         <v>9649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5164,13 +5164,13 @@
         <v>16642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5179,13 +5179,13 @@
         <v>26292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5200,13 @@
         <v>35550</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -5215,13 +5215,13 @@
         <v>29786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5230,19 +5230,19 @@
         <v>65336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>77</v>
@@ -5251,13 +5251,13 @@
         <v>56724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -5266,13 +5266,13 @@
         <v>49220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5281,19 +5281,19 @@
         <v>105944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>179</v>
@@ -5302,13 +5302,13 @@
         <v>130929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>199</v>
@@ -5317,13 +5317,13 @@
         <v>141943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>378</v>
@@ -5332,13 +5332,13 @@
         <v>272872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5353,13 @@
         <v>236437</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>349</v>
@@ -5368,13 +5368,13 @@
         <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>672</v>
@@ -5383,18 +5383,18 @@
         <v>480435</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5406,13 +5406,13 @@
         <v>1406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5421,13 +5421,13 @@
         <v>688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5436,13 +5436,13 @@
         <v>2093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5457,13 @@
         <v>1477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5472,13 +5472,13 @@
         <v>4934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5487,13 +5487,13 @@
         <v>6411</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5508,13 @@
         <v>5991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5523,13 +5523,13 @@
         <v>7403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5538,19 +5538,19 @@
         <v>13395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>27</v>
@@ -5559,13 +5559,13 @@
         <v>19339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5574,13 +5574,13 @@
         <v>14082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -5589,19 +5589,19 @@
         <v>33420</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>65</v>
@@ -5610,13 +5610,13 @@
         <v>47289</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -5625,13 +5625,13 @@
         <v>43419</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
@@ -5640,13 +5640,13 @@
         <v>90707</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5661,13 @@
         <v>75502</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>99</v>
@@ -5676,13 +5676,13 @@
         <v>70526</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>204</v>
@@ -5691,13 +5691,13 @@
         <v>146027</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5714,13 @@
         <v>5652</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5729,13 +5729,13 @@
         <v>9121</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5747,10 +5747,10 @@
         <v>24</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5765,13 @@
         <v>17332</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -5780,13 +5780,13 @@
         <v>26137</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -5795,13 +5795,13 @@
         <v>43469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5816,13 @@
         <v>43020</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -5831,13 +5831,13 @@
         <v>41398</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M24" s="7">
         <v>120</v>
@@ -5846,19 +5846,19 @@
         <v>84418</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>121</v>
@@ -5909,7 +5909,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>266</v>
@@ -5930,7 +5930,7 @@
         <v>282</v>
       </c>
       <c r="I26" s="7">
-        <v>200975</v>
+        <v>200974</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>491</v>
@@ -5969,28 +5969,28 @@
         <v>348577</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>491</v>
       </c>
       <c r="I27" s="7">
-        <v>344502</v>
+        <v>344501</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>970</v>
@@ -5999,18 +5999,18 @@
         <v>693078</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7835B76E-3128-48B6-9758-AF31CC4EB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07810170-C31B-4FAF-A688-B9344C18A3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFFB1C36-D855-42C1-B8D8-5D3E1FFB8D4F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{705817B0-DC75-4C7A-8579-995A8E2DBBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="493">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1462 +73,1450 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>53,6%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBFCBB7-E336-477D-B57D-F17D763E708F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A077736B-26AA-4F37-9D29-29E2804B2B7E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,10 +2046,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>667</v>
+        <v>1270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2073,10 +2061,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1270</v>
+        <v>667</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2097,46 +2085,46 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1900</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1900</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2145,10 +2133,10 @@
         <v>1900</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -2163,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>6099</v>
+        <v>5980</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2178,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>5980</v>
+        <v>6099</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -2211,10 +2199,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>6923</v>
+        <v>10076</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -2226,10 +2214,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>10076</v>
+        <v>6923</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>41</v>
@@ -2262,10 +2250,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>29535</v>
+        <v>26787</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -2277,10 +2265,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>26787</v>
+        <v>29535</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
@@ -2313,25 +2301,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -2366,31 +2354,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1971</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>62</v>
@@ -2414,37 +2402,37 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2075</v>
+        <v>3461</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2075</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3461</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2453,13 +2441,13 @@
         <v>5536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,34 +2456,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22836</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>31139</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22836</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -2504,13 +2492,13 @@
         <v>53974</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,34 +2507,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41416</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="7">
         <v>53</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>35389</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="7">
-        <v>62</v>
-      </c>
-      <c r="I13" s="7">
-        <v>41416</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2555,13 +2543,13 @@
         <v>76805</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,34 +2558,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>181</v>
+      </c>
+      <c r="D14" s="7">
+        <v>122146</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="7">
         <v>219</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>144774</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="7">
-        <v>181</v>
-      </c>
-      <c r="I14" s="7">
-        <v>122146</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>400</v>
@@ -2606,13 +2594,13 @@
         <v>266920</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,25 +2609,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>284</v>
+      </c>
+      <c r="D15" s="7">
+        <v>189859</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215347</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>284</v>
-      </c>
-      <c r="I15" s="7">
-        <v>189859</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -2668,7 +2656,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2683,10 +2671,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2698,10 +2686,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2713,46 +2701,46 @@
         <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>793</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>793</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2761,13 +2749,13 @@
         <v>793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,34 +2764,34 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7950</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9296</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7950</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2812,13 +2800,13 @@
         <v>17245</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,34 +2815,34 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10761</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>5873</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10761</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2863,13 +2851,13 @@
         <v>16635</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,34 +2866,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7">
+        <v>34742</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="7">
         <v>51</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>33871</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="7">
-        <v>50</v>
-      </c>
-      <c r="I20" s="7">
-        <v>34742</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -2914,13 +2902,13 @@
         <v>68614</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,25 +2917,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2982,34 +2970,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2638</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1270</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3018,49 +3006,49 @@
         <v>3908</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>2075</v>
+        <v>6154</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>6154</v>
+        <v>2075</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3069,13 +3057,13 @@
         <v>8229</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,34 +3072,34 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36765</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="7">
         <v>69</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>46533</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="7">
-        <v>56</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36765</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -3120,13 +3108,13 @@
         <v>83298</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,34 +3123,34 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7">
+        <v>62254</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="7">
         <v>73</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>48185</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="7">
-        <v>93</v>
-      </c>
-      <c r="I25" s="7">
-        <v>62254</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -3171,13 +3159,13 @@
         <v>110439</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,34 +3174,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>271</v>
+      </c>
+      <c r="D26" s="7">
+        <v>183676</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="7">
         <v>314</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>208180</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7">
-        <v>271</v>
-      </c>
-      <c r="I26" s="7">
-        <v>183676</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>585</v>
@@ -3222,13 +3210,13 @@
         <v>391856</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,25 +3225,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>431</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290119</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>307611</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>431</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290119</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -3284,7 +3272,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFE9914-78FD-4422-B016-0957B49C5940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64250D4-4513-4F92-809E-0B4C31E424A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3320,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3421,34 +3409,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1430</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3457,49 +3445,49 @@
         <v>1430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>869</v>
+        <v>1685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1685</v>
+        <v>869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3508,13 +3496,13 @@
         <v>2554</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,34 +3511,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8082</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="7">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>7557</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8082</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -3559,13 +3547,13 @@
         <v>15639</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,34 +3562,34 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8861</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>6471</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8861</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3610,13 +3598,13 @@
         <v>15332</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,34 +3613,34 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32999</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="7">
         <v>40</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>28834</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="7">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7">
-        <v>32999</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -3661,13 +3649,13 @@
         <v>61832</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,25 +3664,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -3729,34 +3717,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4219</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6407</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4219</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3765,49 +3753,49 @@
         <v>10626</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8380</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="7">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8971</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8380</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3816,13 +3804,13 @@
         <v>17351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,34 +3819,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7">
+        <v>28834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="7">
         <v>58</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>39046</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="7">
-        <v>40</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28834</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -3867,13 +3855,13 @@
         <v>67881</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,34 +3870,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>73</v>
+      </c>
+      <c r="D13" s="7">
+        <v>49990</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>61</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>41954</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="7">
-        <v>73</v>
-      </c>
-      <c r="I13" s="7">
-        <v>49990</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -3918,13 +3906,13 @@
         <v>91944</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,34 +3921,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7">
+        <v>108324</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="7">
         <v>184</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>126921</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="7">
-        <v>154</v>
-      </c>
-      <c r="I14" s="7">
-        <v>108324</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -3969,13 +3957,13 @@
         <v>235245</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,25 +3972,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>223299</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -4031,40 +4019,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3548</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>657</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3548</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4073,49 +4061,49 @@
         <v>4205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1678</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1841</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1678</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4124,13 +4112,13 @@
         <v>3519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,34 +4127,34 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8664</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7347</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8664</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -4175,13 +4163,13 @@
         <v>16011</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,34 +4178,34 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14408</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="7">
         <v>19</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>12905</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14408</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -4226,13 +4214,13 @@
         <v>27313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,34 +4229,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7">
+        <v>32503</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="7">
         <v>48</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>33402</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" s="7">
-        <v>45</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32503</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -4277,13 +4265,13 @@
         <v>65905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,25 +4280,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4345,34 +4333,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7767</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>8494</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7767</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4381,49 +4369,49 @@
         <v>16261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>11743</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="7">
         <v>18</v>
       </c>
-      <c r="C23" s="7">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>11681</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H23" s="7">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7">
-        <v>11743</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -4432,13 +4420,13 @@
         <v>23424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,34 +4435,34 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H24" s="7">
         <v>80</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>53950</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H24" s="7">
-        <v>64</v>
-      </c>
-      <c r="I24" s="7">
-        <v>45580</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -4483,13 +4471,13 @@
         <v>99530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,34 +4486,34 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>106</v>
+      </c>
+      <c r="D25" s="7">
+        <v>73259</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="7">
         <v>90</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>61330</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="7">
-        <v>106</v>
-      </c>
-      <c r="I25" s="7">
-        <v>73259</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -4534,13 +4522,13 @@
         <v>134589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,34 +4537,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>246</v>
+      </c>
+      <c r="D26" s="7">
+        <v>173825</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="7">
         <v>272</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>189157</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26" s="7">
-        <v>246</v>
-      </c>
-      <c r="I26" s="7">
-        <v>173825</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>518</v>
@@ -4585,13 +4573,13 @@
         <v>362982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,25 +4588,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>444</v>
+      </c>
+      <c r="D27" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>472</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>324612</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>444</v>
-      </c>
-      <c r="I27" s="7">
-        <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4647,7 +4635,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BD192-11B1-4303-8A22-E62F337D9A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5D925D-97A8-4137-9071-DECD964141A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4683,7 +4671,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4784,34 +4772,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2026</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>662</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4820,49 +4808,49 @@
         <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4560</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>6206</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4560</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4871,13 +4859,13 @@
         <v>10766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,34 +4874,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4209</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1479</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4209</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4922,13 +4910,13 @@
         <v>5688</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,34 +4925,34 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3569</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>12772</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3569</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4973,13 +4961,13 @@
         <v>16341</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,34 +4976,34 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15613</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H8" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>15519</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H8" s="7">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7">
-        <v>15613</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -5024,13 +5012,13 @@
         <v>31132</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,25 +5027,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29977</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -5092,25 +5080,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>3584</v>
+        <v>6407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>376</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>6407</v>
+        <v>3584</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>377</v>
@@ -5128,10 +5116,10 @@
         <v>9992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>381</v>
@@ -5140,13 +5128,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>9649</v>
+        <v>16642</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>382</v>
@@ -5158,19 +5146,19 @@
         <v>384</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>16642</v>
+        <v>9649</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5179,13 +5167,13 @@
         <v>26292</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,34 +5182,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29786</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="7">
         <v>49</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>35550</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H12" s="7">
-        <v>44</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29786</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5230,13 +5218,13 @@
         <v>65336</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,34 +5233,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>49220</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="7">
         <v>77</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>56724</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>49220</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="K13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5281,13 +5269,13 @@
         <v>105944</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5284,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>130929</v>
+        <v>141943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>407</v>
@@ -5311,10 +5299,10 @@
         <v>408</v>
       </c>
       <c r="H14" s="7">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>141943</v>
+        <v>130929</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>409</v>
@@ -5338,7 +5326,7 @@
         <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,25 +5335,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>323</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236437</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -5394,34 +5382,34 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1406</v>
+        <v>688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1406</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>688</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -5442,40 +5430,40 @@
         <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>1477</v>
+        <v>4934</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1477</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4934</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>424</v>
@@ -5502,10 +5490,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>5991</v>
+        <v>7403</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>428</v>
@@ -5517,10 +5505,10 @@
         <v>430</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>7403</v>
+        <v>5991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>431</v>
@@ -5538,10 +5526,10 @@
         <v>13395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>435</v>
@@ -5553,10 +5541,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>19339</v>
+        <v>14082</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>436</v>
@@ -5568,10 +5556,10 @@
         <v>438</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>14082</v>
+        <v>19339</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>439</v>
@@ -5592,10 +5580,10 @@
         <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,34 +5592,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43419</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="7">
         <v>65</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>47289</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H20" s="7">
-        <v>60</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43419</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
@@ -5640,10 +5628,10 @@
         <v>90707</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>452</v>
@@ -5655,25 +5643,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70526</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7">
-        <v>70526</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5708,34 +5696,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>5652</v>
+        <v>9121</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>453</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5652</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H22" s="7">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9121</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5744,49 +5732,49 @@
         <v>14773</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7">
+        <v>26137</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23" s="7">
         <v>24</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>17332</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H23" s="7">
-        <v>38</v>
-      </c>
-      <c r="I23" s="7">
-        <v>26137</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -5795,13 +5783,13 @@
         <v>43469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,31 +5801,31 @@
         <v>60</v>
       </c>
       <c r="D24" s="7">
-        <v>43020</v>
+        <v>41398</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
       </c>
       <c r="I24" s="7">
-        <v>41398</v>
+        <v>43020</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M24" s="7">
         <v>120</v>
@@ -5846,13 +5834,13 @@
         <v>84418</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,34 +5849,34 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7">
+        <v>66871</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H25" s="7">
         <v>121</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>88835</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H25" s="7">
-        <v>97</v>
-      </c>
-      <c r="I25" s="7">
-        <v>66871</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5897,13 +5885,13 @@
         <v>155706</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,34 +5900,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>282</v>
+      </c>
+      <c r="D26" s="7">
+        <v>200974</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H26" s="7">
         <v>266</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>193737</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H26" s="7">
-        <v>282</v>
-      </c>
-      <c r="I26" s="7">
-        <v>200974</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M26" s="7">
         <v>548</v>
@@ -5948,13 +5936,13 @@
         <v>394711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>491</v>
+      </c>
+      <c r="D27" s="7">
+        <v>344501</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>479</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>348577</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>491</v>
-      </c>
-      <c r="I27" s="7">
-        <v>344501</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -6010,7 +5998,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
